--- a/assets/docs/Format Peserta.xlsx
+++ b/assets/docs/Format Peserta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pu-web\assets\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{98C87B47-184D-443E-8072-D5B0E0CD3E1B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862FFD97-370D-471F-B6FA-B0EE087C36F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Peserta" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ID WILAYAH'!$G$2:$I$516</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Data Peserta'!$A$1:$S$4</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="1040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="1062">
   <si>
     <t>NO</t>
   </si>
@@ -3307,13 +3307,79 @@
   </si>
   <si>
     <t>Note: jika anda mengalami kesulitan sampaikan ke group WA dayanaker.</t>
+  </si>
+  <si>
+    <t>1979-07-30</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>1971033007790002</t>
+  </si>
+  <si>
+    <t>DPUPR PROV KEP BABEL</t>
+  </si>
+  <si>
+    <t>JL LINTAS TIMUR PERUM PINANGMAS BLO A NO 12 PANGKAL PINANG</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>TEKNIK</t>
+  </si>
+  <si>
+    <t>UNDIP</t>
+  </si>
+  <si>
+    <t>2004-06-05</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Tidak Kompeten</t>
+  </si>
+  <si>
+    <t>0813555529</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>john_doe@gmail.com</t>
+  </si>
+  <si>
+    <t>Emily Rose</t>
+  </si>
+  <si>
+    <t>1999-01-24</t>
+  </si>
+  <si>
+    <t>1971033007790004</t>
+  </si>
+  <si>
+    <t>emily_rose@gmail.com</t>
+  </si>
+  <si>
+    <t>0813555524</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>Kompeten</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3385,6 +3451,22 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3524,13 +3606,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3608,6 +3691,27 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3627,7 +3731,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -3943,74 +4048,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="36.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" style="16" customWidth="1"/>
-    <col min="9" max="9" width="58.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.109375" style="16" customWidth="1"/>
-    <col min="11" max="11" width="22.109375" style="16" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="6.453125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="21.6328125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="21.6328125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="36.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.81640625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="58.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.1796875" style="16" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" style="16" customWidth="1"/>
+    <col min="12" max="12" width="20.6328125" style="16" customWidth="1"/>
     <col min="13" max="13" width="13" style="16" customWidth="1"/>
-    <col min="14" max="14" width="19.5546875" style="16" customWidth="1"/>
-    <col min="15" max="15" width="29.109375" style="16" customWidth="1"/>
-    <col min="16" max="16" width="29.5546875" style="16" customWidth="1"/>
-    <col min="17" max="18" width="25.44140625" style="16" customWidth="1"/>
-    <col min="19" max="19" width="25.44140625" style="17" customWidth="1"/>
-    <col min="20" max="20" width="21.88671875" style="16" customWidth="1"/>
-    <col min="21" max="21" width="25.33203125" style="16" customWidth="1"/>
-    <col min="22" max="16384" width="9.109375" style="16"/>
+    <col min="14" max="14" width="19.453125" style="16" customWidth="1"/>
+    <col min="15" max="15" width="29.1796875" style="16" customWidth="1"/>
+    <col min="16" max="16" width="29.453125" style="16" customWidth="1"/>
+    <col min="17" max="18" width="25.453125" style="16" customWidth="1"/>
+    <col min="19" max="19" width="25.453125" style="17" customWidth="1"/>
+    <col min="20" max="20" width="21.81640625" style="16" customWidth="1"/>
+    <col min="21" max="21" width="25.36328125" style="16" customWidth="1"/>
+    <col min="22" max="16384" width="9.1796875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="37" t="s">
         <v>567</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
     </row>
-    <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:21" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="38" t="s">
         <v>1039</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
       <c r="H3" s="19"/>
       <c r="I3" s="18"/>
     </row>
-    <row r="4" spans="1:21" s="22" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:21" s="22" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>566</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="36" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -4022,13 +4127,13 @@
       <c r="F4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="33" t="s">
         <v>572</v>
       </c>
       <c r="J4" s="21" t="s">
@@ -4040,7 +4145,7 @@
       <c r="L4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="33" t="s">
         <v>12</v>
       </c>
       <c r="N4" s="26" t="s">
@@ -4049,13 +4154,13 @@
       <c r="O4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="P4" s="33" t="s">
         <v>574</v>
       </c>
-      <c r="Q4" s="29" t="s">
+      <c r="Q4" s="36" t="s">
         <v>1032</v>
       </c>
-      <c r="R4" s="26" t="s">
+      <c r="R4" s="33" t="s">
         <v>1031</v>
       </c>
       <c r="S4" s="20" t="s">
@@ -4068,12 +4173,12 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+    <row r="5" spans="1:21" s="17" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="35"/>
       <c r="B5" s="23" t="s">
         <v>563</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="8" t="s">
         <v>575</v>
       </c>
@@ -4083,9 +4188,11 @@
       <c r="F5" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="27"/>
+      <c r="G5" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="H5" s="35"/>
+      <c r="I5" s="34"/>
       <c r="J5" s="24" t="s">
         <v>1037</v>
       </c>
@@ -4095,14 +4202,16 @@
       <c r="L5" s="24" t="s">
         <v>565</v>
       </c>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="30" t="s">
+        <v>563</v>
+      </c>
       <c r="O5" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="27"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="34"/>
       <c r="S5" s="25" t="s">
         <v>1038</v>
       </c>
@@ -4113,25 +4222,172 @@
         <v>1036</v>
       </c>
     </row>
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>1044</v>
+      </c>
+      <c r="K6" s="6">
+        <v>19</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1971</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>1050</v>
+      </c>
+      <c r="N6" s="32" t="s">
+        <v>1052</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>1045</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="R6" s="28" t="s">
+        <v>1048</v>
+      </c>
+      <c r="S6" s="28" t="s">
+        <v>1050</v>
+      </c>
+      <c r="T6" s="28" t="s">
+        <v>1051</v>
+      </c>
+      <c r="U6" s="28" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>1044</v>
+      </c>
+      <c r="K7" s="6">
+        <v>19</v>
+      </c>
+      <c r="L7" s="6">
+        <v>1971</v>
+      </c>
+      <c r="M7" s="6">
+        <v>7113627934</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>1059</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>1060</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>1050</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>1050</v>
+      </c>
+      <c r="R7" s="28" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S7" s="28" t="s">
+        <v>1050</v>
+      </c>
+      <c r="T7" s="28" t="s">
+        <v>1061</v>
+      </c>
+      <c r="U7" s="28" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="G12"/>
+    </row>
   </sheetData>
   <sheetProtection formatRows="0"/>
-  <mergeCells count="12">
+  <mergeCells count="10">
     <mergeCell ref="R4:R5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="C4:C5"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G6" r:id="rId1" xr:uid="{29D5CBCA-CB66-2047-B2AD-0CA882B2A8F4}"/>
+    <hyperlink ref="G7" r:id="rId2" xr:uid="{5A532168-5474-1847-93F9-110856268EE5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -4143,33 +4399,33 @@
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="2"/>
-    <col min="5" max="5" width="29.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="18.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="32.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="2"/>
+    <col min="5" max="5" width="29.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="1"/>
+    <col min="7" max="7" width="18.36328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="29.36328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="32.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="28.5" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>562</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="39" t="s">
         <v>570</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -4178,7 +4434,7 @@
       <c r="F3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -4199,7 +4455,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -4220,7 +4476,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -4241,7 +4497,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -4262,7 +4518,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -4283,7 +4539,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -4304,7 +4560,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -4325,7 +4581,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <v>9</v>
       </c>
@@ -4346,7 +4602,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <v>10</v>
       </c>
@@ -4367,7 +4623,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D13" s="6">
         <v>19</v>
       </c>
@@ -4384,7 +4640,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D14" s="6">
         <v>21</v>
       </c>
@@ -4401,7 +4657,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D15" s="6">
         <v>31</v>
       </c>
@@ -4418,7 +4674,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="D16" s="6">
         <v>32</v>
       </c>
@@ -4435,7 +4691,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D17" s="6">
         <v>33</v>
       </c>
@@ -4452,7 +4708,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D18" s="6">
         <v>34</v>
       </c>
@@ -4469,7 +4725,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D19" s="6">
         <v>35</v>
       </c>
@@ -4486,7 +4742,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D20" s="6">
         <v>36</v>
       </c>
@@ -4503,7 +4759,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D21" s="6">
         <v>51</v>
       </c>
@@ -4520,7 +4776,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D22" s="6">
         <v>52</v>
       </c>
@@ -4537,7 +4793,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D23" s="6">
         <v>53</v>
       </c>
@@ -4554,7 +4810,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D24" s="6">
         <v>61</v>
       </c>
@@ -4571,7 +4827,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D25" s="6">
         <v>62</v>
       </c>
@@ -4588,7 +4844,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D26" s="6">
         <v>63</v>
       </c>
@@ -4605,7 +4861,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D27" s="6">
         <v>64</v>
       </c>
@@ -4622,7 +4878,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D28" s="6">
         <v>65</v>
       </c>
@@ -4639,7 +4895,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D29" s="6">
         <v>71</v>
       </c>
@@ -4656,7 +4912,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D30" s="6">
         <v>72</v>
       </c>
@@ -4673,7 +4929,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D31" s="6">
         <v>73</v>
       </c>
@@ -4690,7 +4946,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D32" s="6">
         <v>74</v>
       </c>
@@ -4707,7 +4963,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D33" s="6">
         <v>75</v>
       </c>
@@ -4724,7 +4980,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D34" s="6">
         <v>76</v>
       </c>
@@ -4741,7 +4997,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D35" s="6">
         <v>81</v>
       </c>
@@ -4758,7 +5014,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D36" s="6">
         <v>82</v>
       </c>
@@ -4775,7 +5031,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D37" s="6">
         <v>91</v>
       </c>
@@ -4792,7 +5048,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D38" s="6">
         <v>94</v>
       </c>
@@ -4809,7 +5065,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:9" x14ac:dyDescent="0.35">
       <c r="G39" s="6">
         <v>1212</v>
       </c>
@@ -4820,7 +5076,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:9" x14ac:dyDescent="0.35">
       <c r="G40" s="6">
         <v>1213</v>
       </c>
@@ -4831,7 +5087,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:9" x14ac:dyDescent="0.35">
       <c r="G41" s="6">
         <v>1214</v>
       </c>
@@ -4842,7 +5098,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:9" x14ac:dyDescent="0.35">
       <c r="G42" s="6">
         <v>1215</v>
       </c>
@@ -4853,7 +5109,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:9" x14ac:dyDescent="0.35">
       <c r="G43" s="6">
         <v>1216</v>
       </c>
@@ -4864,7 +5120,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:9" x14ac:dyDescent="0.35">
       <c r="G44" s="6">
         <v>1217</v>
       </c>
@@ -4875,7 +5131,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:9" x14ac:dyDescent="0.35">
       <c r="G45" s="6">
         <v>1218</v>
       </c>
@@ -4886,7 +5142,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:9" x14ac:dyDescent="0.35">
       <c r="G46" s="6">
         <v>1219</v>
       </c>
@@ -4897,7 +5153,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:9" x14ac:dyDescent="0.35">
       <c r="G47" s="6">
         <v>1220</v>
       </c>
@@ -4908,7 +5164,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:9" x14ac:dyDescent="0.35">
       <c r="G48" s="6">
         <v>1221</v>
       </c>
@@ -4919,7 +5175,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G49" s="6">
         <v>1222</v>
       </c>
@@ -4930,7 +5186,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G50" s="6">
         <v>1223</v>
       </c>
@@ -4941,7 +5197,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G51" s="6">
         <v>1224</v>
       </c>
@@ -4952,7 +5208,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G52" s="6">
         <v>1225</v>
       </c>
@@ -4963,7 +5219,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G53" s="6">
         <v>1271</v>
       </c>
@@ -4974,7 +5230,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G54" s="6">
         <v>1272</v>
       </c>
@@ -4985,7 +5241,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G55" s="6">
         <v>1273</v>
       </c>
@@ -4996,7 +5252,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G56" s="6">
         <v>1274</v>
       </c>
@@ -5007,7 +5263,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G57" s="6">
         <v>1275</v>
       </c>
@@ -5018,7 +5274,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G58" s="6">
         <v>1276</v>
       </c>
@@ -5029,7 +5285,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G59" s="6">
         <v>1277</v>
       </c>
@@ -5040,7 +5296,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G60" s="6">
         <v>1278</v>
       </c>
@@ -5051,7 +5307,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G61" s="6">
         <v>1301</v>
       </c>
@@ -5062,7 +5318,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G62" s="6">
         <v>1302</v>
       </c>
@@ -5073,7 +5329,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G63" s="6">
         <v>1303</v>
       </c>
@@ -5084,7 +5340,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G64" s="6">
         <v>1304</v>
       </c>
@@ -5095,7 +5351,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G65" s="6">
         <v>1305</v>
       </c>
@@ -5106,7 +5362,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="66" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G66" s="6">
         <v>1306</v>
       </c>
@@ -5117,7 +5373,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G67" s="6">
         <v>1307</v>
       </c>
@@ -5128,7 +5384,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G68" s="6">
         <v>1308</v>
       </c>
@@ -5139,7 +5395,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G69" s="6">
         <v>1309</v>
       </c>
@@ -5150,7 +5406,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G70" s="6">
         <v>1310</v>
       </c>
@@ -5161,7 +5417,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="71" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G71" s="6">
         <v>1311</v>
       </c>
@@ -5172,7 +5428,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G72" s="6">
         <v>1312</v>
       </c>
@@ -5183,7 +5439,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G73" s="6">
         <v>1371</v>
       </c>
@@ -5194,7 +5450,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="74" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G74" s="6">
         <v>1372</v>
       </c>
@@ -5205,7 +5461,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G75" s="6">
         <v>1373</v>
       </c>
@@ -5216,7 +5472,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G76" s="6">
         <v>1374</v>
       </c>
@@ -5227,7 +5483,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G77" s="6">
         <v>1375</v>
       </c>
@@ -5238,7 +5494,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G78" s="6">
         <v>1376</v>
       </c>
@@ -5249,7 +5505,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G79" s="6">
         <v>1377</v>
       </c>
@@ -5260,7 +5516,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="80" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G80" s="6">
         <v>1401</v>
       </c>
@@ -5271,7 +5527,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="81" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G81" s="6">
         <v>1402</v>
       </c>
@@ -5282,7 +5538,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="82" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G82" s="6">
         <v>1403</v>
       </c>
@@ -5293,7 +5549,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="83" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G83" s="6">
         <v>1404</v>
       </c>
@@ -5304,7 +5560,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="84" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G84" s="6">
         <v>1405</v>
       </c>
@@ -5315,7 +5571,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="85" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G85" s="6">
         <v>1406</v>
       </c>
@@ -5326,7 +5582,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="86" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G86" s="6">
         <v>1407</v>
       </c>
@@ -5337,7 +5593,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G87" s="6">
         <v>1408</v>
       </c>
@@ -5348,7 +5604,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="88" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G88" s="6">
         <v>1409</v>
       </c>
@@ -5359,7 +5615,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="89" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G89" s="6">
         <v>1410</v>
       </c>
@@ -5370,7 +5626,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G90" s="6">
         <v>1471</v>
       </c>
@@ -5381,7 +5637,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="91" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G91" s="6">
         <v>1473</v>
       </c>
@@ -5392,7 +5648,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="92" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G92" s="6">
         <v>1501</v>
       </c>
@@ -5403,7 +5659,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="93" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G93" s="6">
         <v>1502</v>
       </c>
@@ -5414,7 +5670,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="94" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G94" s="6">
         <v>1503</v>
       </c>
@@ -5425,7 +5681,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="95" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G95" s="6">
         <v>1504</v>
       </c>
@@ -5436,7 +5692,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="96" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G96" s="6">
         <v>1505</v>
       </c>
@@ -5447,7 +5703,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="97" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G97" s="6">
         <v>1506</v>
       </c>
@@ -5458,7 +5714,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="98" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G98" s="6">
         <v>1507</v>
       </c>
@@ -5469,7 +5725,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="99" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G99" s="6">
         <v>1508</v>
       </c>
@@ -5480,7 +5736,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="100" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G100" s="6">
         <v>1509</v>
       </c>
@@ -5491,7 +5747,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="101" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G101" s="6">
         <v>1571</v>
       </c>
@@ -5502,7 +5758,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="102" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G102" s="6">
         <v>1572</v>
       </c>
@@ -5513,7 +5769,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="103" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G103" s="6">
         <v>1601</v>
       </c>
@@ -5524,7 +5780,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="104" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G104" s="6">
         <v>1602</v>
       </c>
@@ -5535,7 +5791,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="105" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G105" s="6">
         <v>1603</v>
       </c>
@@ -5546,7 +5802,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="106" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G106" s="6">
         <v>1604</v>
       </c>
@@ -5557,7 +5813,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="107" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G107" s="6">
         <v>1605</v>
       </c>
@@ -5568,7 +5824,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="108" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G108" s="6">
         <v>1606</v>
       </c>
@@ -5579,7 +5835,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="109" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G109" s="6">
         <v>1607</v>
       </c>
@@ -5590,7 +5846,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="110" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G110" s="6">
         <v>1608</v>
       </c>
@@ -5601,7 +5857,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="111" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G111" s="6">
         <v>1609</v>
       </c>
@@ -5612,7 +5868,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="112" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G112" s="6">
         <v>1610</v>
       </c>
@@ -5623,7 +5879,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="113" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G113" s="6">
         <v>1611</v>
       </c>
@@ -5634,7 +5890,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="114" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G114" s="6">
         <v>1612</v>
       </c>
@@ -5645,7 +5901,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="115" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G115" s="6">
         <v>1613</v>
       </c>
@@ -5656,7 +5912,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="116" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G116" s="6">
         <v>1671</v>
       </c>
@@ -5667,7 +5923,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="117" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G117" s="6">
         <v>1672</v>
       </c>
@@ -5678,7 +5934,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="118" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G118" s="6">
         <v>1673</v>
       </c>
@@ -5689,7 +5945,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="119" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G119" s="6">
         <v>1674</v>
       </c>
@@ -5700,7 +5956,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="120" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G120" s="6">
         <v>1701</v>
       </c>
@@ -5711,7 +5967,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="121" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G121" s="6">
         <v>1702</v>
       </c>
@@ -5722,7 +5978,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="122" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G122" s="6">
         <v>1703</v>
       </c>
@@ -5733,7 +5989,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="123" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G123" s="6">
         <v>1704</v>
       </c>
@@ -5744,7 +6000,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="124" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G124" s="6">
         <v>1705</v>
       </c>
@@ -5755,7 +6011,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="125" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G125" s="6">
         <v>1706</v>
       </c>
@@ -5766,7 +6022,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="126" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G126" s="6">
         <v>1707</v>
       </c>
@@ -5777,7 +6033,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="127" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G127" s="6">
         <v>1708</v>
       </c>
@@ -5788,7 +6044,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="128" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G128" s="6">
         <v>1709</v>
       </c>
@@ -5799,7 +6055,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="129" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G129" s="6">
         <v>1771</v>
       </c>
@@ -5810,7 +6066,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="130" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G130" s="6">
         <v>1801</v>
       </c>
@@ -5821,7 +6077,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="131" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G131" s="6">
         <v>1802</v>
       </c>
@@ -5832,7 +6088,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="132" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G132" s="6">
         <v>1803</v>
       </c>
@@ -5843,7 +6099,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="133" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G133" s="6">
         <v>1804</v>
       </c>
@@ -5854,7 +6110,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="134" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G134" s="6">
         <v>1805</v>
       </c>
@@ -5865,7 +6121,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="135" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G135" s="6">
         <v>1806</v>
       </c>
@@ -5876,7 +6132,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="136" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G136" s="6">
         <v>1807</v>
       </c>
@@ -5887,7 +6143,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="137" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G137" s="6">
         <v>1808</v>
       </c>
@@ -5898,7 +6154,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="138" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G138" s="6">
         <v>1809</v>
       </c>
@@ -5909,7 +6165,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="139" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G139" s="6">
         <v>1810</v>
       </c>
@@ -5920,7 +6176,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="140" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G140" s="6">
         <v>1811</v>
       </c>
@@ -5931,7 +6187,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="141" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G141" s="6">
         <v>1812</v>
       </c>
@@ -5942,7 +6198,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="142" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G142" s="6">
         <v>1813</v>
       </c>
@@ -5953,7 +6209,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="143" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G143" s="6">
         <v>1871</v>
       </c>
@@ -5964,7 +6220,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="144" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G144" s="6">
         <v>1872</v>
       </c>
@@ -5975,7 +6231,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="145" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G145" s="6">
         <v>1901</v>
       </c>
@@ -5986,7 +6242,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="146" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G146" s="6">
         <v>1902</v>
       </c>
@@ -5997,7 +6253,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="147" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G147" s="6">
         <v>1903</v>
       </c>
@@ -6008,7 +6264,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="148" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G148" s="6">
         <v>1904</v>
       </c>
@@ -6019,7 +6275,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="149" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G149" s="6">
         <v>1905</v>
       </c>
@@ -6030,7 +6286,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="150" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G150" s="6">
         <v>1906</v>
       </c>
@@ -6041,7 +6297,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="151" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G151" s="6">
         <v>1971</v>
       </c>
@@ -6052,7 +6308,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="152" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G152" s="6">
         <v>2101</v>
       </c>
@@ -6063,7 +6319,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="153" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G153" s="6">
         <v>2102</v>
       </c>
@@ -6074,7 +6330,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="154" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G154" s="6">
         <v>2103</v>
       </c>
@@ -6085,7 +6341,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="155" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G155" s="6">
         <v>2104</v>
       </c>
@@ -6096,7 +6352,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="156" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G156" s="6">
         <v>2105</v>
       </c>
@@ -6107,7 +6363,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="157" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G157" s="6">
         <v>2171</v>
       </c>
@@ -6118,7 +6374,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="158" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G158" s="6">
         <v>2172</v>
       </c>
@@ -6129,7 +6385,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="159" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G159" s="6">
         <v>3101</v>
       </c>
@@ -6140,7 +6396,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="160" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G160" s="6">
         <v>3171</v>
       </c>
@@ -6151,7 +6407,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="161" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G161" s="6">
         <v>3172</v>
       </c>
@@ -6162,7 +6418,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="162" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G162" s="6">
         <v>3173</v>
       </c>
@@ -6173,7 +6429,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="163" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G163" s="6">
         <v>3174</v>
       </c>
@@ -6184,7 +6440,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="164" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G164" s="6">
         <v>3175</v>
       </c>
@@ -6195,7 +6451,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="165" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G165" s="6">
         <v>3201</v>
       </c>
@@ -6206,7 +6462,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="166" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G166" s="6">
         <v>3202</v>
       </c>
@@ -6217,7 +6473,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="167" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G167" s="6">
         <v>3203</v>
       </c>
@@ -6228,7 +6484,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="168" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G168" s="6">
         <v>3204</v>
       </c>
@@ -6239,7 +6495,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="169" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G169" s="6">
         <v>3205</v>
       </c>
@@ -6250,7 +6506,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="170" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G170" s="6">
         <v>3206</v>
       </c>
@@ -6261,7 +6517,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="171" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G171" s="6">
         <v>3207</v>
       </c>
@@ -6272,7 +6528,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="172" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G172" s="6">
         <v>3208</v>
       </c>
@@ -6283,7 +6539,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="173" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G173" s="6">
         <v>3209</v>
       </c>
@@ -6294,7 +6550,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="174" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G174" s="6">
         <v>3210</v>
       </c>
@@ -6305,7 +6561,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="175" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G175" s="6">
         <v>3211</v>
       </c>
@@ -6316,7 +6572,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="176" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G176" s="6">
         <v>3212</v>
       </c>
@@ -6327,7 +6583,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="177" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G177" s="6">
         <v>3213</v>
       </c>
@@ -6338,7 +6594,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="178" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G178" s="6">
         <v>3214</v>
       </c>
@@ -6349,7 +6605,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="179" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G179" s="6">
         <v>3215</v>
       </c>
@@ -6360,7 +6616,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="180" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G180" s="6">
         <v>3216</v>
       </c>
@@ -6371,7 +6627,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="181" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G181" s="6">
         <v>3217</v>
       </c>
@@ -6382,7 +6638,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="182" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G182" s="6">
         <v>3218</v>
       </c>
@@ -6393,7 +6649,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="183" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G183" s="6">
         <v>3271</v>
       </c>
@@ -6404,7 +6660,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="184" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G184" s="6">
         <v>3272</v>
       </c>
@@ -6415,7 +6671,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="185" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G185" s="6">
         <v>3273</v>
       </c>
@@ -6426,7 +6682,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="186" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G186" s="6">
         <v>3274</v>
       </c>
@@ -6437,7 +6693,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="187" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G187" s="6">
         <v>3275</v>
       </c>
@@ -6448,7 +6704,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="188" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G188" s="6">
         <v>3276</v>
       </c>
@@ -6459,7 +6715,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="189" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G189" s="6">
         <v>3277</v>
       </c>
@@ -6470,7 +6726,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="190" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G190" s="6">
         <v>3278</v>
       </c>
@@ -6481,7 +6737,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="191" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G191" s="6">
         <v>3279</v>
       </c>
@@ -6492,7 +6748,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="192" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G192" s="6">
         <v>3301</v>
       </c>
@@ -6503,7 +6759,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="193" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G193" s="6">
         <v>3302</v>
       </c>
@@ -6514,7 +6770,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="194" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G194" s="6">
         <v>3303</v>
       </c>
@@ -6525,7 +6781,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="195" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G195" s="6">
         <v>3304</v>
       </c>
@@ -6536,7 +6792,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="196" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G196" s="6">
         <v>3305</v>
       </c>
@@ -6547,7 +6803,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="197" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G197" s="6">
         <v>3306</v>
       </c>
@@ -6558,7 +6814,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="198" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G198" s="6">
         <v>3307</v>
       </c>
@@ -6569,7 +6825,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="199" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G199" s="6">
         <v>3308</v>
       </c>
@@ -6580,7 +6836,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="200" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G200" s="6">
         <v>3309</v>
       </c>
@@ -6591,7 +6847,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="201" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G201" s="6">
         <v>3310</v>
       </c>
@@ -6602,7 +6858,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="202" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G202" s="6">
         <v>3311</v>
       </c>
@@ -6613,7 +6869,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="203" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G203" s="6">
         <v>3312</v>
       </c>
@@ -6624,7 +6880,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="204" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G204" s="6">
         <v>3313</v>
       </c>
@@ -6635,7 +6891,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="205" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G205" s="6">
         <v>3314</v>
       </c>
@@ -6646,7 +6902,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="206" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G206" s="6">
         <v>3315</v>
       </c>
@@ -6657,7 +6913,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="207" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G207" s="6">
         <v>3316</v>
       </c>
@@ -6668,7 +6924,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="208" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G208" s="6">
         <v>3317</v>
       </c>
@@ -6679,7 +6935,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="209" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G209" s="6">
         <v>3318</v>
       </c>
@@ -6690,7 +6946,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="210" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G210" s="6">
         <v>3319</v>
       </c>
@@ -6701,7 +6957,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="211" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G211" s="6">
         <v>3320</v>
       </c>
@@ -6712,7 +6968,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="212" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G212" s="6">
         <v>3321</v>
       </c>
@@ -6723,7 +6979,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="213" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G213" s="6">
         <v>3322</v>
       </c>
@@ -6734,7 +6990,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="214" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G214" s="6">
         <v>3323</v>
       </c>
@@ -6745,7 +7001,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="215" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G215" s="6">
         <v>3324</v>
       </c>
@@ -6756,7 +7012,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="216" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G216" s="6">
         <v>3325</v>
       </c>
@@ -6767,7 +7023,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="217" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G217" s="6">
         <v>3326</v>
       </c>
@@ -6778,7 +7034,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="218" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G218" s="6">
         <v>3327</v>
       </c>
@@ -6789,7 +7045,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="219" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G219" s="6">
         <v>3328</v>
       </c>
@@ -6800,7 +7056,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="220" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G220" s="6">
         <v>3329</v>
       </c>
@@ -6811,7 +7067,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="221" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G221" s="6">
         <v>3371</v>
       </c>
@@ -6822,7 +7078,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="222" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G222" s="6">
         <v>3372</v>
       </c>
@@ -6833,7 +7089,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="223" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G223" s="6">
         <v>3373</v>
       </c>
@@ -6844,7 +7100,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="224" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G224" s="6">
         <v>3374</v>
       </c>
@@ -6855,7 +7111,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="225" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G225" s="6">
         <v>3375</v>
       </c>
@@ -6866,7 +7122,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="226" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G226" s="6">
         <v>3376</v>
       </c>
@@ -6877,7 +7133,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="227" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G227" s="6">
         <v>3401</v>
       </c>
@@ -6888,7 +7144,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="228" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G228" s="6">
         <v>3402</v>
       </c>
@@ -6899,7 +7155,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="229" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G229" s="6">
         <v>3403</v>
       </c>
@@ -6910,7 +7166,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="230" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G230" s="6">
         <v>3404</v>
       </c>
@@ -6921,7 +7177,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="231" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G231" s="6">
         <v>3471</v>
       </c>
@@ -6932,7 +7188,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="232" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G232" s="6">
         <v>3501</v>
       </c>
@@ -6943,7 +7199,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="233" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G233" s="6">
         <v>3502</v>
       </c>
@@ -6954,7 +7210,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="234" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G234" s="6">
         <v>3503</v>
       </c>
@@ -6965,7 +7221,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="235" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G235" s="6">
         <v>3504</v>
       </c>
@@ -6976,7 +7232,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="236" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G236" s="6">
         <v>3505</v>
       </c>
@@ -6987,7 +7243,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="237" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G237" s="6">
         <v>3506</v>
       </c>
@@ -6998,7 +7254,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="238" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G238" s="6">
         <v>3507</v>
       </c>
@@ -7009,7 +7265,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="239" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G239" s="6">
         <v>3508</v>
       </c>
@@ -7020,7 +7276,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="240" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G240" s="6">
         <v>3509</v>
       </c>
@@ -7031,7 +7287,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="241" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G241" s="6">
         <v>3510</v>
       </c>
@@ -7042,7 +7298,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="242" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G242" s="6">
         <v>3511</v>
       </c>
@@ -7053,7 +7309,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="243" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G243" s="6">
         <v>3512</v>
       </c>
@@ -7064,7 +7320,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="244" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G244" s="6">
         <v>3513</v>
       </c>
@@ -7075,7 +7331,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="245" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G245" s="6">
         <v>3514</v>
       </c>
@@ -7086,7 +7342,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="246" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G246" s="6">
         <v>3515</v>
       </c>
@@ -7097,7 +7353,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="247" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G247" s="6">
         <v>3516</v>
       </c>
@@ -7108,7 +7364,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="248" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G248" s="6">
         <v>3517</v>
       </c>
@@ -7119,7 +7375,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="249" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G249" s="6">
         <v>3518</v>
       </c>
@@ -7130,7 +7386,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="250" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G250" s="6">
         <v>3519</v>
       </c>
@@ -7141,7 +7397,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="251" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G251" s="6">
         <v>3520</v>
       </c>
@@ -7152,7 +7408,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="252" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G252" s="6">
         <v>3521</v>
       </c>
@@ -7163,7 +7419,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="253" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G253" s="6">
         <v>3522</v>
       </c>
@@ -7174,7 +7430,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="254" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G254" s="6">
         <v>3523</v>
       </c>
@@ -7185,7 +7441,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="255" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G255" s="6">
         <v>3524</v>
       </c>
@@ -7196,7 +7452,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="256" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G256" s="6">
         <v>3525</v>
       </c>
@@ -7207,7 +7463,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="257" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G257" s="6">
         <v>3526</v>
       </c>
@@ -7218,7 +7474,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="258" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G258" s="6">
         <v>3527</v>
       </c>
@@ -7229,7 +7485,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="259" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G259" s="6">
         <v>3528</v>
       </c>
@@ -7240,7 +7496,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="260" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G260" s="6">
         <v>3529</v>
       </c>
@@ -7251,7 +7507,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="261" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G261" s="6">
         <v>3571</v>
       </c>
@@ -7262,7 +7518,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="262" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G262" s="6">
         <v>3572</v>
       </c>
@@ -7273,7 +7529,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="263" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G263" s="6">
         <v>3573</v>
       </c>
@@ -7284,7 +7540,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="264" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G264" s="6">
         <v>3574</v>
       </c>
@@ -7295,7 +7551,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="265" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G265" s="6">
         <v>3575</v>
       </c>
@@ -7306,7 +7562,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="266" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G266" s="6">
         <v>3576</v>
       </c>
@@ -7317,7 +7573,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="267" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G267" s="6">
         <v>3577</v>
       </c>
@@ -7328,7 +7584,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="268" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G268" s="6">
         <v>3578</v>
       </c>
@@ -7339,7 +7595,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="269" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G269" s="6">
         <v>3579</v>
       </c>
@@ -7350,7 +7606,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="270" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G270" s="6">
         <v>3601</v>
       </c>
@@ -7361,7 +7617,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="271" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G271" s="6">
         <v>3602</v>
       </c>
@@ -7372,7 +7628,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="272" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G272" s="6">
         <v>3603</v>
       </c>
@@ -7383,7 +7639,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="273" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G273" s="6">
         <v>3604</v>
       </c>
@@ -7394,7 +7650,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="274" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G274" s="6">
         <v>3671</v>
       </c>
@@ -7405,7 +7661,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="275" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G275" s="6">
         <v>3672</v>
       </c>
@@ -7416,7 +7672,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="276" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G276" s="6">
         <v>3673</v>
       </c>
@@ -7427,7 +7683,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="277" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G277" s="6">
         <v>3674</v>
       </c>
@@ -7438,7 +7694,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="278" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G278" s="6">
         <v>5101</v>
       </c>
@@ -7449,7 +7705,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="279" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G279" s="6">
         <v>5102</v>
       </c>
@@ -7460,7 +7716,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="280" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G280" s="6">
         <v>5103</v>
       </c>
@@ -7471,7 +7727,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="281" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G281" s="6">
         <v>5104</v>
       </c>
@@ -7482,7 +7738,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="282" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G282" s="6">
         <v>5105</v>
       </c>
@@ -7493,7 +7749,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="283" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G283" s="6">
         <v>5106</v>
       </c>
@@ -7504,7 +7760,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="284" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G284" s="6">
         <v>5107</v>
       </c>
@@ -7515,7 +7771,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="285" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G285" s="6">
         <v>5108</v>
       </c>
@@ -7526,7 +7782,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="286" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G286" s="6">
         <v>5171</v>
       </c>
@@ -7537,7 +7793,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="287" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G287" s="6">
         <v>5201</v>
       </c>
@@ -7548,7 +7804,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="288" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G288" s="6">
         <v>5202</v>
       </c>
@@ -7559,7 +7815,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="289" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G289" s="6">
         <v>5203</v>
       </c>
@@ -7570,7 +7826,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="290" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G290" s="6">
         <v>5204</v>
       </c>
@@ -7581,7 +7837,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="291" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G291" s="6">
         <v>5205</v>
       </c>
@@ -7592,7 +7848,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="292" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G292" s="6">
         <v>5206</v>
       </c>
@@ -7603,7 +7859,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="293" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G293" s="6">
         <v>5207</v>
       </c>
@@ -7614,7 +7870,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="294" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G294" s="6">
         <v>5208</v>
       </c>
@@ -7625,7 +7881,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="295" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G295" s="6">
         <v>5271</v>
       </c>
@@ -7636,7 +7892,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="296" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G296" s="6">
         <v>5272</v>
       </c>
@@ -7647,7 +7903,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="297" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G297" s="6">
         <v>5301</v>
       </c>
@@ -7658,7 +7914,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="298" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G298" s="6">
         <v>5302</v>
       </c>
@@ -7669,7 +7925,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="299" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G299" s="6">
         <v>5303</v>
       </c>
@@ -7680,7 +7936,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="300" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G300" s="6">
         <v>5304</v>
       </c>
@@ -7691,7 +7947,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="301" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G301" s="6">
         <v>5305</v>
       </c>
@@ -7702,7 +7958,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="302" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G302" s="6">
         <v>5306</v>
       </c>
@@ -7713,7 +7969,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="303" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G303" s="6">
         <v>5307</v>
       </c>
@@ -7724,7 +7980,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="304" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G304" s="6">
         <v>5308</v>
       </c>
@@ -7735,7 +7991,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="305" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G305" s="6">
         <v>5309</v>
       </c>
@@ -7746,7 +8002,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="306" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G306" s="6">
         <v>5310</v>
       </c>
@@ -7757,7 +8013,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="307" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G307" s="6">
         <v>5311</v>
       </c>
@@ -7768,7 +8024,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="308" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G308" s="6">
         <v>5312</v>
       </c>
@@ -7779,7 +8035,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="309" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G309" s="6">
         <v>5313</v>
       </c>
@@ -7790,7 +8046,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="310" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G310" s="6">
         <v>5314</v>
       </c>
@@ -7801,7 +8057,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="311" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G311" s="6">
         <v>5315</v>
       </c>
@@ -7812,7 +8068,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="312" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G312" s="6">
         <v>5316</v>
       </c>
@@ -7823,7 +8079,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="313" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G313" s="6">
         <v>5317</v>
       </c>
@@ -7834,7 +8090,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="314" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G314" s="6">
         <v>5318</v>
       </c>
@@ -7845,7 +8101,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="315" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G315" s="6">
         <v>5319</v>
       </c>
@@ -7856,7 +8112,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="316" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G316" s="6">
         <v>5320</v>
       </c>
@@ -7867,7 +8123,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="317" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G317" s="6">
         <v>5321</v>
       </c>
@@ -7878,7 +8134,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="318" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G318" s="6">
         <v>5371</v>
       </c>
@@ -7889,7 +8145,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="319" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G319" s="6">
         <v>6101</v>
       </c>
@@ -7900,7 +8156,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="320" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G320" s="6">
         <v>6102</v>
       </c>
@@ -7911,7 +8167,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="321" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G321" s="6">
         <v>6103</v>
       </c>
@@ -7922,7 +8178,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="322" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G322" s="6">
         <v>6104</v>
       </c>
@@ -7933,7 +8189,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="323" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G323" s="6">
         <v>6105</v>
       </c>
@@ -7944,7 +8200,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="324" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G324" s="6">
         <v>6106</v>
       </c>
@@ -7955,7 +8211,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="325" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G325" s="6">
         <v>6107</v>
       </c>
@@ -7966,7 +8222,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="326" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G326" s="6">
         <v>6108</v>
       </c>
@@ -7977,7 +8233,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="327" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G327" s="6">
         <v>6109</v>
       </c>
@@ -7988,7 +8244,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="328" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G328" s="6">
         <v>6110</v>
       </c>
@@ -7999,7 +8255,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="329" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G329" s="6">
         <v>6111</v>
       </c>
@@ -8010,7 +8266,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="330" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G330" s="6">
         <v>6112</v>
       </c>
@@ -8021,7 +8277,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="331" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G331" s="6">
         <v>6171</v>
       </c>
@@ -8032,7 +8288,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="332" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G332" s="6">
         <v>6172</v>
       </c>
@@ -8043,7 +8299,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="333" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G333" s="6">
         <v>6201</v>
       </c>
@@ -8054,7 +8310,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="334" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G334" s="6">
         <v>6202</v>
       </c>
@@ -8065,7 +8321,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="335" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G335" s="6">
         <v>6203</v>
       </c>
@@ -8076,7 +8332,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="336" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G336" s="6">
         <v>6204</v>
       </c>
@@ -8087,7 +8343,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="337" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G337" s="6">
         <v>6205</v>
       </c>
@@ -8098,7 +8354,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="338" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G338" s="6">
         <v>6206</v>
       </c>
@@ -8109,7 +8365,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="339" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G339" s="6">
         <v>6207</v>
       </c>
@@ -8120,7 +8376,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="340" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G340" s="6">
         <v>6208</v>
       </c>
@@ -8131,7 +8387,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="341" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G341" s="6">
         <v>6209</v>
       </c>
@@ -8142,7 +8398,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="342" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G342" s="6">
         <v>6210</v>
       </c>
@@ -8153,7 +8409,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="343" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G343" s="6">
         <v>6211</v>
       </c>
@@ -8164,7 +8420,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="344" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G344" s="6">
         <v>6212</v>
       </c>
@@ -8175,7 +8431,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="345" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G345" s="6">
         <v>6213</v>
       </c>
@@ -8186,7 +8442,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="346" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G346" s="6">
         <v>6271</v>
       </c>
@@ -8197,7 +8453,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="347" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G347" s="6">
         <v>6301</v>
       </c>
@@ -8208,7 +8464,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="348" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G348" s="6">
         <v>6302</v>
       </c>
@@ -8219,7 +8475,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="349" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G349" s="6">
         <v>6303</v>
       </c>
@@ -8230,7 +8486,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="350" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G350" s="6">
         <v>6304</v>
       </c>
@@ -8241,7 +8497,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="351" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G351" s="6">
         <v>6305</v>
       </c>
@@ -8252,7 +8508,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="352" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G352" s="6">
         <v>6306</v>
       </c>
@@ -8263,7 +8519,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="353" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G353" s="6">
         <v>6307</v>
       </c>
@@ -8274,7 +8530,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="354" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G354" s="6">
         <v>6308</v>
       </c>
@@ -8285,7 +8541,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="355" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G355" s="6">
         <v>6309</v>
       </c>
@@ -8296,7 +8552,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="356" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G356" s="6">
         <v>6310</v>
       </c>
@@ -8307,7 +8563,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="357" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G357" s="6">
         <v>6311</v>
       </c>
@@ -8318,7 +8574,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="358" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G358" s="6">
         <v>6371</v>
       </c>
@@ -8329,7 +8585,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="359" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G359" s="6">
         <v>6372</v>
       </c>
@@ -8340,7 +8596,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="360" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G360" s="6">
         <v>6401</v>
       </c>
@@ -8351,7 +8607,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="361" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G361" s="6">
         <v>6402</v>
       </c>
@@ -8362,7 +8618,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="362" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G362" s="6">
         <v>6403</v>
       </c>
@@ -8373,7 +8629,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="363" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G363" s="6">
         <v>6404</v>
       </c>
@@ -8384,7 +8640,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="364" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G364" s="6">
         <v>6405</v>
       </c>
@@ -8395,7 +8651,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="365" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G365" s="6">
         <v>6409</v>
       </c>
@@ -8406,7 +8662,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="366" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G366" s="6">
         <v>6411</v>
       </c>
@@ -8417,7 +8673,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="367" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G367" s="6">
         <v>6471</v>
       </c>
@@ -8428,7 +8684,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="368" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G368" s="6">
         <v>6472</v>
       </c>
@@ -8439,7 +8695,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="369" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G369" s="6">
         <v>6474</v>
       </c>
@@ -8450,7 +8706,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="370" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G370" s="6">
         <v>6501</v>
       </c>
@@ -8461,7 +8717,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="371" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G371" s="6">
         <v>6502</v>
       </c>
@@ -8472,7 +8728,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="372" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G372" s="6">
         <v>6503</v>
       </c>
@@ -8483,7 +8739,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="373" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G373" s="6">
         <v>6504</v>
       </c>
@@ -8494,7 +8750,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="374" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G374" s="6">
         <v>6571</v>
       </c>
@@ -8505,7 +8761,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="375" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G375" s="6">
         <v>7101</v>
       </c>
@@ -8516,7 +8772,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="376" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G376" s="6">
         <v>7102</v>
       </c>
@@ -8527,7 +8783,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="377" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G377" s="6">
         <v>7103</v>
       </c>
@@ -8538,7 +8794,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="378" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G378" s="6">
         <v>7104</v>
       </c>
@@ -8549,7 +8805,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="379" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G379" s="6">
         <v>7105</v>
       </c>
@@ -8560,7 +8816,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="380" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G380" s="6">
         <v>7106</v>
       </c>
@@ -8571,7 +8827,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="381" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G381" s="6">
         <v>7107</v>
       </c>
@@ -8582,7 +8838,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="382" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G382" s="6">
         <v>7108</v>
       </c>
@@ -8593,7 +8849,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="383" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G383" s="6">
         <v>7109</v>
       </c>
@@ -8604,7 +8860,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="384" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G384" s="6">
         <v>7110</v>
       </c>
@@ -8615,7 +8871,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="385" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="385" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G385" s="6">
         <v>7111</v>
       </c>
@@ -8626,7 +8882,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="386" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="386" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G386" s="6">
         <v>7171</v>
       </c>
@@ -8637,7 +8893,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="387" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="387" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G387" s="6">
         <v>7172</v>
       </c>
@@ -8648,7 +8904,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="388" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="388" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G388" s="6">
         <v>7173</v>
       </c>
@@ -8659,7 +8915,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="389" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="389" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G389" s="6">
         <v>7174</v>
       </c>
@@ -8670,7 +8926,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="390" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="390" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G390" s="6">
         <v>7201</v>
       </c>
@@ -8681,7 +8937,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="391" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="391" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G391" s="6">
         <v>7202</v>
       </c>
@@ -8692,7 +8948,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="392" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="392" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G392" s="6">
         <v>7203</v>
       </c>
@@ -8703,7 +8959,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="393" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="393" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G393" s="6">
         <v>7204</v>
       </c>
@@ -8714,7 +8970,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="394" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="394" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G394" s="6">
         <v>7205</v>
       </c>
@@ -8725,7 +8981,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="395" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="395" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G395" s="6">
         <v>7206</v>
       </c>
@@ -8736,7 +8992,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="396" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="396" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G396" s="6">
         <v>7207</v>
       </c>
@@ -8747,7 +9003,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="397" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="397" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G397" s="6">
         <v>7208</v>
       </c>
@@ -8758,7 +9014,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="398" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="398" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G398" s="6">
         <v>7209</v>
       </c>
@@ -8769,7 +9025,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="399" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="399" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G399" s="6">
         <v>7210</v>
       </c>
@@ -8780,7 +9036,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="400" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="400" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G400" s="6">
         <v>7211</v>
       </c>
@@ -8791,7 +9047,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="401" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="401" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G401" s="6">
         <v>7212</v>
       </c>
@@ -8802,7 +9058,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="402" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="402" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G402" s="6">
         <v>7271</v>
       </c>
@@ -8813,7 +9069,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="403" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="403" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G403" s="6">
         <v>7301</v>
       </c>
@@ -8824,7 +9080,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="404" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G404" s="6">
         <v>7302</v>
       </c>
@@ -8835,7 +9091,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="405" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G405" s="6">
         <v>7303</v>
       </c>
@@ -8846,7 +9102,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="406" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="406" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G406" s="6">
         <v>7304</v>
       </c>
@@ -8857,7 +9113,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="407" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="407" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G407" s="6">
         <v>7305</v>
       </c>
@@ -8868,7 +9124,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="408" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="408" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G408" s="6">
         <v>7306</v>
       </c>
@@ -8879,7 +9135,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="409" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="409" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G409" s="6">
         <v>7307</v>
       </c>
@@ -8890,7 +9146,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="410" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="410" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G410" s="6">
         <v>7308</v>
       </c>
@@ -8901,7 +9157,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="411" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="411" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G411" s="6">
         <v>7309</v>
       </c>
@@ -8912,7 +9168,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="412" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="412" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G412" s="6">
         <v>7310</v>
       </c>
@@ -8923,7 +9179,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="413" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="413" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G413" s="6">
         <v>7311</v>
       </c>
@@ -8934,7 +9190,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="414" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="414" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G414" s="6">
         <v>7312</v>
       </c>
@@ -8945,7 +9201,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="415" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="415" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G415" s="6">
         <v>7313</v>
       </c>
@@ -8956,7 +9212,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="416" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="416" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G416" s="6">
         <v>7314</v>
       </c>
@@ -8967,7 +9223,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="417" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="417" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G417" s="6">
         <v>7315</v>
       </c>
@@ -8978,7 +9234,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="418" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="418" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G418" s="6">
         <v>7316</v>
       </c>
@@ -8989,7 +9245,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="419" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="419" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G419" s="6">
         <v>7317</v>
       </c>
@@ -9000,7 +9256,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="420" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="420" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G420" s="6">
         <v>7318</v>
       </c>
@@ -9011,7 +9267,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="421" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="421" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G421" s="6">
         <v>7322</v>
       </c>
@@ -9022,7 +9278,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="422" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="422" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G422" s="6">
         <v>7325</v>
       </c>
@@ -9033,7 +9289,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="423" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="423" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G423" s="6">
         <v>7326</v>
       </c>
@@ -9044,7 +9300,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="424" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="424" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G424" s="6">
         <v>7371</v>
       </c>
@@ -9055,7 +9311,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="425" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="425" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G425" s="6">
         <v>7372</v>
       </c>
@@ -9066,7 +9322,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="426" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="426" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G426" s="6">
         <v>7373</v>
       </c>
@@ -9077,7 +9333,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="427" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="427" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G427" s="6">
         <v>7401</v>
       </c>
@@ -9088,7 +9344,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="428" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="428" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G428" s="6">
         <v>7402</v>
       </c>
@@ -9099,7 +9355,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="429" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="429" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G429" s="6">
         <v>7403</v>
       </c>
@@ -9110,7 +9366,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="430" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="430" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G430" s="6">
         <v>7404</v>
       </c>
@@ -9121,7 +9377,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="431" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="431" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G431" s="6">
         <v>7405</v>
       </c>
@@ -9132,7 +9388,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="432" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="432" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G432" s="6">
         <v>7406</v>
       </c>
@@ -9143,7 +9399,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="433" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="433" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G433" s="6">
         <v>7407</v>
       </c>
@@ -9154,7 +9410,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="434" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="434" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G434" s="6">
         <v>7408</v>
       </c>
@@ -9165,7 +9421,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="435" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="435" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G435" s="6">
         <v>7409</v>
       </c>
@@ -9176,7 +9432,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="436" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="436" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G436" s="6">
         <v>7410</v>
       </c>
@@ -9187,7 +9443,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="437" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="437" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G437" s="6">
         <v>7411</v>
       </c>
@@ -9198,7 +9454,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="438" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="438" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G438" s="6">
         <v>7412</v>
       </c>
@@ -9209,7 +9465,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="439" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="439" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G439" s="6">
         <v>7413</v>
       </c>
@@ -9220,7 +9476,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="440" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="440" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G440" s="6">
         <v>7414</v>
       </c>
@@ -9231,7 +9487,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="441" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="441" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G441" s="6">
         <v>7415</v>
       </c>
@@ -9242,7 +9498,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="442" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="442" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G442" s="6">
         <v>7471</v>
       </c>
@@ -9253,7 +9509,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="443" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="443" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G443" s="6">
         <v>7472</v>
       </c>
@@ -9264,7 +9520,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="444" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="444" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G444" s="6">
         <v>7501</v>
       </c>
@@ -9275,7 +9531,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="445" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="445" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G445" s="6">
         <v>7502</v>
       </c>
@@ -9286,7 +9542,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="446" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="446" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G446" s="6">
         <v>7503</v>
       </c>
@@ -9297,7 +9553,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="447" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="447" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G447" s="6">
         <v>7504</v>
       </c>
@@ -9308,7 +9564,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="448" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="448" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G448" s="6">
         <v>7505</v>
       </c>
@@ -9319,7 +9575,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="449" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="449" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G449" s="6">
         <v>7571</v>
       </c>
@@ -9330,7 +9586,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="450" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="450" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G450" s="6">
         <v>7601</v>
       </c>
@@ -9341,7 +9597,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="451" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="451" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G451" s="6">
         <v>7602</v>
       </c>
@@ -9352,7 +9608,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="452" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="452" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G452" s="6">
         <v>7603</v>
       </c>
@@ -9363,7 +9619,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="453" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="453" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G453" s="6">
         <v>7604</v>
       </c>
@@ -9374,7 +9630,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="454" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="454" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G454" s="6">
         <v>7605</v>
       </c>
@@ -9385,7 +9641,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="455" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="455" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G455" s="6">
         <v>7606</v>
       </c>
@@ -9396,7 +9652,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="456" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="456" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G456" s="6">
         <v>8101</v>
       </c>
@@ -9407,7 +9663,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="457" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="457" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G457" s="6">
         <v>8102</v>
       </c>
@@ -9418,7 +9674,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="458" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="458" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G458" s="6">
         <v>8103</v>
       </c>
@@ -9429,7 +9685,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="459" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="459" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G459" s="6">
         <v>8104</v>
       </c>
@@ -9440,7 +9696,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="460" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="460" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G460" s="6">
         <v>8105</v>
       </c>
@@ -9451,7 +9707,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="461" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="461" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G461" s="6">
         <v>8106</v>
       </c>
@@ -9462,7 +9718,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="462" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="462" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G462" s="6">
         <v>8107</v>
       </c>
@@ -9473,7 +9729,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="463" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="463" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G463" s="6">
         <v>8108</v>
       </c>
@@ -9484,7 +9740,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="464" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="464" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G464" s="6">
         <v>8109</v>
       </c>
@@ -9495,7 +9751,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="465" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="465" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G465" s="6">
         <v>8171</v>
       </c>
@@ -9506,7 +9762,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="466" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="466" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G466" s="6">
         <v>8172</v>
       </c>
@@ -9517,7 +9773,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="467" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="467" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G467" s="6">
         <v>8201</v>
       </c>
@@ -9528,7 +9784,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="468" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="468" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G468" s="6">
         <v>8202</v>
       </c>
@@ -9539,7 +9795,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="469" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="469" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G469" s="6">
         <v>8203</v>
       </c>
@@ -9550,7 +9806,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="470" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="470" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G470" s="6">
         <v>8204</v>
       </c>
@@ -9561,7 +9817,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="471" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="471" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G471" s="6">
         <v>8205</v>
       </c>
@@ -9572,7 +9828,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="472" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="472" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G472" s="6">
         <v>8206</v>
       </c>
@@ -9583,7 +9839,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="473" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="473" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G473" s="6">
         <v>8207</v>
       </c>
@@ -9594,7 +9850,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="474" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="474" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G474" s="6">
         <v>8208</v>
       </c>
@@ -9605,7 +9861,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="475" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="475" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G475" s="6">
         <v>8271</v>
       </c>
@@ -9616,7 +9872,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="476" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="476" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G476" s="6">
         <v>8272</v>
       </c>
@@ -9627,7 +9883,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="477" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="477" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G477" s="6">
         <v>9101</v>
       </c>
@@ -9638,7 +9894,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="478" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="478" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G478" s="6">
         <v>9102</v>
       </c>
@@ -9649,7 +9905,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="479" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="479" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G479" s="6">
         <v>9103</v>
       </c>
@@ -9660,7 +9916,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="480" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="480" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G480" s="6">
         <v>9104</v>
       </c>
@@ -9671,7 +9927,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="481" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="481" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G481" s="6">
         <v>9105</v>
       </c>
@@ -9682,7 +9938,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="482" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="482" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G482" s="6">
         <v>9106</v>
       </c>
@@ -9693,7 +9949,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="483" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="483" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G483" s="6">
         <v>9107</v>
       </c>
@@ -9704,7 +9960,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="484" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="484" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G484" s="6">
         <v>9108</v>
       </c>
@@ -9715,7 +9971,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="485" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="485" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G485" s="6">
         <v>9109</v>
       </c>
@@ -9726,7 +9982,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="486" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="486" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G486" s="6">
         <v>9110</v>
       </c>
@@ -9737,7 +9993,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="487" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="487" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G487" s="6">
         <v>9111</v>
       </c>
@@ -9748,7 +10004,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="488" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="488" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G488" s="6">
         <v>9112</v>
       </c>
@@ -9759,7 +10015,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="489" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="489" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G489" s="6">
         <v>9171</v>
       </c>
@@ -9770,7 +10026,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="490" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="490" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G490" s="6">
         <v>9401</v>
       </c>
@@ -9781,7 +10037,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="491" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="491" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G491" s="6">
         <v>9402</v>
       </c>
@@ -9792,7 +10048,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="492" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="492" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G492" s="6">
         <v>9403</v>
       </c>
@@ -9803,7 +10059,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="493" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="493" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G493" s="6">
         <v>9404</v>
       </c>
@@ -9814,7 +10070,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="494" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="494" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G494" s="6">
         <v>9408</v>
       </c>
@@ -9825,7 +10081,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="495" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="495" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G495" s="6">
         <v>9409</v>
       </c>
@@ -9836,7 +10092,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="496" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="496" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G496" s="6">
         <v>9410</v>
       </c>
@@ -9847,7 +10103,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="497" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="497" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G497" s="6">
         <v>9411</v>
       </c>
@@ -9858,7 +10114,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="498" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="498" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G498" s="6">
         <v>9412</v>
       </c>
@@ -9869,7 +10125,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="499" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="499" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G499" s="6">
         <v>9413</v>
       </c>
@@ -9880,7 +10136,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="500" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="500" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G500" s="6">
         <v>9414</v>
       </c>
@@ -9891,7 +10147,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="501" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="501" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G501" s="6">
         <v>9415</v>
       </c>
@@ -9902,7 +10158,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="502" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="502" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G502" s="6">
         <v>9416</v>
       </c>
@@ -9913,7 +10169,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="503" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="503" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G503" s="6">
         <v>9417</v>
       </c>
@@ -9924,7 +10180,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="504" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="504" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G504" s="6">
         <v>9418</v>
       </c>
@@ -9935,7 +10191,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="505" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="505" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G505" s="6">
         <v>9419</v>
       </c>
@@ -9946,7 +10202,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="506" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="506" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G506" s="6">
         <v>9420</v>
       </c>
@@ -9957,7 +10213,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="507" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="507" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G507" s="6">
         <v>9426</v>
       </c>
@@ -9968,7 +10224,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="508" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="508" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G508" s="6">
         <v>9427</v>
       </c>
@@ -9979,7 +10235,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="509" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="509" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G509" s="6">
         <v>9428</v>
       </c>
@@ -9990,7 +10246,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="510" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="510" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G510" s="6">
         <v>9429</v>
       </c>
@@ -10001,7 +10257,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="511" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="511" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G511" s="6">
         <v>9430</v>
       </c>
@@ -10012,7 +10268,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="512" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="512" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G512" s="6">
         <v>9431</v>
       </c>
@@ -10023,7 +10279,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="513" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="513" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G513" s="6">
         <v>9432</v>
       </c>
@@ -10034,7 +10290,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="514" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="514" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G514" s="6">
         <v>9433</v>
       </c>
@@ -10045,7 +10301,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="515" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="515" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G515" s="6">
         <v>9434</v>
       </c>
@@ -10056,7 +10312,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="516" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="516" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G516" s="6">
         <v>9435</v>
       </c>
@@ -10067,7 +10323,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="517" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="517" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G517" s="6">
         <v>9436</v>
       </c>
@@ -10078,7 +10334,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="518" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="518" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G518" s="6">
         <v>9471</v>
       </c>
@@ -10108,17 +10364,17 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="81.88671875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="24.44140625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="5.6328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="81.81640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="24.453125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
         <v>1033</v>
       </c>
@@ -10132,7 +10388,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14">
         <v>1</v>
       </c>
@@ -10146,7 +10402,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14">
         <v>2</v>
       </c>
@@ -10160,7 +10416,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="14">
         <v>3</v>
       </c>
@@ -10174,7 +10430,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="14">
         <v>4</v>
       </c>
@@ -10188,7 +10444,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="14">
         <v>5</v>
       </c>
@@ -10202,7 +10458,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="14">
         <v>6</v>
       </c>
@@ -10216,7 +10472,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="14">
         <v>7</v>
       </c>
@@ -10230,7 +10486,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="14">
         <v>8</v>
       </c>
@@ -10244,7 +10500,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="14">
         <v>9</v>
       </c>
@@ -10258,7 +10514,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="14">
         <v>10</v>
       </c>
@@ -10272,7 +10528,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="14">
         <v>11</v>
       </c>
@@ -10286,7 +10542,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="14">
         <v>12</v>
       </c>
@@ -10300,7 +10556,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="14">
         <v>13</v>
       </c>
@@ -10314,7 +10570,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="14">
         <v>14</v>
       </c>
@@ -10328,7 +10584,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="14">
         <v>15</v>
       </c>
@@ -10342,7 +10598,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="14">
         <v>16</v>
       </c>
@@ -10356,7 +10612,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="14">
         <v>17</v>
       </c>
@@ -10370,7 +10626,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="14">
         <v>18</v>
       </c>
@@ -10384,7 +10640,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="14">
         <v>19</v>
       </c>
@@ -10398,7 +10654,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="14">
         <v>20</v>
       </c>
@@ -10412,7 +10668,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="14">
         <v>21</v>
       </c>
@@ -10426,7 +10682,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="14">
         <v>22</v>
       </c>
@@ -10440,7 +10696,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="14">
         <v>23</v>
       </c>
@@ -10454,7 +10710,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="14">
         <v>24</v>
       </c>
@@ -10468,7 +10724,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="14">
         <v>25</v>
       </c>
@@ -10482,7 +10738,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="14">
         <v>26</v>
       </c>
@@ -10496,7 +10752,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="14">
         <v>27</v>
       </c>
@@ -10510,7 +10766,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="14">
         <v>28</v>
       </c>
@@ -10524,7 +10780,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="14">
         <v>29</v>
       </c>
@@ -10538,7 +10794,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="14">
         <v>30</v>
       </c>
@@ -10552,7 +10808,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="14">
         <v>31</v>
       </c>
@@ -10566,7 +10822,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="14">
         <v>32</v>
       </c>
@@ -10580,7 +10836,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="14">
         <v>33</v>
       </c>
@@ -10594,7 +10850,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="14">
         <v>34</v>
       </c>
@@ -10608,7 +10864,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="14">
         <v>35</v>
       </c>
@@ -10622,7 +10878,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="14">
         <v>36</v>
       </c>
@@ -10636,7 +10892,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="14">
         <v>37</v>
       </c>
@@ -10650,7 +10906,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="14">
         <v>38</v>
       </c>
@@ -10664,7 +10920,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="14">
         <v>39</v>
       </c>
@@ -10678,7 +10934,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="14">
         <v>40</v>
       </c>
@@ -10692,7 +10948,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="14">
         <v>41</v>
       </c>
@@ -10706,7 +10962,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="14">
         <v>42</v>
       </c>
@@ -10720,7 +10976,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="14">
         <v>43</v>
       </c>
@@ -10734,7 +10990,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="14">
         <v>44</v>
       </c>
@@ -10748,7 +11004,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="14">
         <v>45</v>
       </c>
@@ -10762,7 +11018,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="14">
         <v>46</v>
       </c>
@@ -10776,7 +11032,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="14">
         <v>47</v>
       </c>
@@ -10790,7 +11046,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="14">
         <v>48</v>
       </c>
@@ -10804,7 +11060,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="14">
         <v>49</v>
       </c>
@@ -10818,7 +11074,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="14">
         <v>50</v>
       </c>
@@ -10832,7 +11088,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="14">
         <v>51</v>
       </c>
@@ -10846,7 +11102,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="14">
         <v>52</v>
       </c>
@@ -10860,7 +11116,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="14">
         <v>53</v>
       </c>
@@ -10874,7 +11130,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="56" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="14">
         <v>54</v>
       </c>
@@ -10888,7 +11144,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="14">
         <v>55</v>
       </c>
@@ -10902,7 +11158,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="14">
         <v>56</v>
       </c>
@@ -10916,7 +11172,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="14">
         <v>57</v>
       </c>
@@ -10930,7 +11186,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="14">
         <v>58</v>
       </c>
@@ -10944,7 +11200,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="61" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="14">
         <v>59</v>
       </c>
@@ -10958,7 +11214,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="62" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="14">
         <v>60</v>
       </c>
@@ -10972,7 +11228,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="63" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="14">
         <v>61</v>
       </c>
@@ -10986,7 +11242,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="64" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="14">
         <v>62</v>
       </c>
@@ -11000,7 +11256,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="65" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="14">
         <v>63</v>
       </c>
@@ -11014,7 +11270,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="14">
         <v>64</v>
       </c>
@@ -11028,7 +11284,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="14">
         <v>65</v>
       </c>
@@ -11042,7 +11298,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="14">
         <v>66</v>
       </c>
@@ -11056,7 +11312,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="14">
         <v>67</v>
       </c>
@@ -11070,7 +11326,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="70" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="14">
         <v>68</v>
       </c>
@@ -11084,7 +11340,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="71" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="14">
         <v>69</v>
       </c>
@@ -11098,7 +11354,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="72" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="14">
         <v>70</v>
       </c>
@@ -11112,7 +11368,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="73" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="14">
         <v>71</v>
       </c>
@@ -11126,7 +11382,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="14">
         <v>72</v>
       </c>
@@ -11140,7 +11396,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="75" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="14">
         <v>73</v>
       </c>
@@ -11154,7 +11410,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="76" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="14">
         <v>74</v>
       </c>
@@ -11168,7 +11424,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="77" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="14">
         <v>75</v>
       </c>
@@ -11182,7 +11438,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="78" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="14">
         <v>76</v>
       </c>
@@ -11196,7 +11452,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="79" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="14">
         <v>77</v>
       </c>
@@ -11210,7 +11466,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="80" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="14">
         <v>78</v>
       </c>
@@ -11224,7 +11480,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="14">
         <v>79</v>
       </c>
@@ -11238,7 +11494,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="14">
         <v>80</v>
       </c>
@@ -11252,7 +11508,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="14">
         <v>81</v>
       </c>
@@ -11266,7 +11522,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="14">
         <v>82</v>
       </c>
@@ -11280,7 +11536,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="14">
         <v>83</v>
       </c>
@@ -11294,7 +11550,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="14">
         <v>84</v>
       </c>
@@ -11308,7 +11564,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="14">
         <v>85</v>
       </c>
@@ -11322,7 +11578,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="14">
         <v>86</v>
       </c>
@@ -11336,7 +11592,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="14">
         <v>87</v>
       </c>
@@ -11350,7 +11606,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="14">
         <v>88</v>
       </c>
@@ -11364,7 +11620,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="14">
         <v>89</v>
       </c>
@@ -11378,7 +11634,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="92" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="14">
         <v>90</v>
       </c>
@@ -11392,7 +11648,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="93" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="14">
         <v>91</v>
       </c>
@@ -11406,7 +11662,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="94" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="14">
         <v>92</v>
       </c>
@@ -11420,7 +11676,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="95" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="14">
         <v>93</v>
       </c>
@@ -11434,7 +11690,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="96" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="14">
         <v>94</v>
       </c>
@@ -11448,7 +11704,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="97" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="14">
         <v>95</v>
       </c>
@@ -11462,7 +11718,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="98" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="14">
         <v>96</v>
       </c>
@@ -11476,7 +11732,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="99" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="14">
         <v>97</v>
       </c>
@@ -11490,7 +11746,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="100" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="14">
         <v>98</v>
       </c>
@@ -11504,7 +11760,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="101" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="14">
         <v>99</v>
       </c>
@@ -11518,7 +11774,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="102" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="14">
         <v>100</v>
       </c>
@@ -11532,7 +11788,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="103" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="14">
         <v>101</v>
       </c>
@@ -11546,7 +11802,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="104" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="14">
         <v>102</v>
       </c>
@@ -11560,7 +11816,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="105" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="14">
         <v>103</v>
       </c>
@@ -11574,7 +11830,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="106" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="14">
         <v>104</v>
       </c>
@@ -11588,7 +11844,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="107" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="14">
         <v>105</v>
       </c>
@@ -11602,7 +11858,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="108" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="14">
         <v>106</v>
       </c>
@@ -11616,7 +11872,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="109" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="14">
         <v>107</v>
       </c>
@@ -11630,7 +11886,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="110" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="14">
         <v>108</v>
       </c>
@@ -11644,7 +11900,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="111" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="14">
         <v>109</v>
       </c>
@@ -11658,7 +11914,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="112" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="14">
         <v>110</v>
       </c>
@@ -11672,7 +11928,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="113" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="14">
         <v>111</v>
       </c>
@@ -11686,7 +11942,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="114" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="14">
         <v>112</v>
       </c>
@@ -11700,7 +11956,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="115" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="14">
         <v>113</v>
       </c>
@@ -11714,7 +11970,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="116" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="14">
         <v>114</v>
       </c>
@@ -11728,7 +11984,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="117" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="14">
         <v>115</v>
       </c>
@@ -11742,7 +11998,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="118" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="14">
         <v>116</v>
       </c>
@@ -11756,7 +12012,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="119" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="14">
         <v>117</v>
       </c>
@@ -11770,7 +12026,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="120" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="14">
         <v>118</v>
       </c>
@@ -11784,7 +12040,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="121" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="14">
         <v>119</v>
       </c>
@@ -11798,7 +12054,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="122" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="14">
         <v>120</v>
       </c>
@@ -11812,7 +12068,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="123" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="14">
         <v>121</v>
       </c>
@@ -11826,7 +12082,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="124" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="14">
         <v>122</v>
       </c>
@@ -11840,7 +12096,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="125" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="14">
         <v>123</v>
       </c>
@@ -11854,7 +12110,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="126" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="14">
         <v>124</v>
       </c>
@@ -11868,7 +12124,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="127" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="14">
         <v>125</v>
       </c>
@@ -11882,7 +12138,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="128" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="14">
         <v>126</v>
       </c>
@@ -11896,7 +12152,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="129" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="14">
         <v>127</v>
       </c>
@@ -11910,7 +12166,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="130" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="14">
         <v>128</v>
       </c>
@@ -11924,7 +12180,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="131" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="14">
         <v>129</v>
       </c>
@@ -11938,7 +12194,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="132" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="14">
         <v>130</v>
       </c>
@@ -11952,7 +12208,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="133" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="14">
         <v>131</v>
       </c>
@@ -11966,7 +12222,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="134" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="14">
         <v>132</v>
       </c>
@@ -11980,7 +12236,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="135" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="14">
         <v>133</v>
       </c>
@@ -11994,7 +12250,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="136" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="14">
         <v>134</v>
       </c>
@@ -12008,7 +12264,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="137" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="14">
         <v>135</v>
       </c>
@@ -12022,7 +12278,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="138" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="14">
         <v>136</v>
       </c>
@@ -12036,7 +12292,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="139" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="14">
         <v>137</v>
       </c>
@@ -12050,7 +12306,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="140" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="14">
         <v>138</v>
       </c>
@@ -12064,7 +12320,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="141" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="14">
         <v>139</v>
       </c>
@@ -12078,7 +12334,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="142" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="14">
         <v>140</v>
       </c>
@@ -12092,7 +12348,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="143" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="14">
         <v>141</v>
       </c>
@@ -12106,7 +12362,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="144" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="14">
         <v>142</v>
       </c>
@@ -12120,7 +12376,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="145" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="14">
         <v>143</v>
       </c>
@@ -12134,7 +12390,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="146" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="14">
         <v>144</v>
       </c>
@@ -12148,7 +12404,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="147" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="14">
         <v>145</v>
       </c>
@@ -12162,7 +12418,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="148" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="14">
         <v>146</v>
       </c>
@@ -12176,7 +12432,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="149" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="14">
         <v>147</v>
       </c>
@@ -12190,7 +12446,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="150" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="14">
         <v>148</v>
       </c>
@@ -12204,7 +12460,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="151" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="14">
         <v>149</v>
       </c>
@@ -12218,7 +12474,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="152" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="14">
         <v>150</v>
       </c>
@@ -12232,7 +12488,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="153" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="14">
         <v>151</v>
       </c>
@@ -12246,7 +12502,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="154" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="14">
         <v>152</v>
       </c>
@@ -12260,7 +12516,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="155" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="14">
         <v>153</v>
       </c>
@@ -12274,7 +12530,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="156" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="14">
         <v>154</v>
       </c>
@@ -12288,7 +12544,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="157" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="14">
         <v>155</v>
       </c>
@@ -12302,7 +12558,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="158" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="14">
         <v>156</v>
       </c>
@@ -12316,7 +12572,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="159" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="14">
         <v>157</v>
       </c>
@@ -12330,7 +12586,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="160" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="14">
         <v>158</v>
       </c>
@@ -12344,7 +12600,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="161" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="14">
         <v>159</v>
       </c>
@@ -12358,7 +12614,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="162" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="14">
         <v>160</v>
       </c>
@@ -12372,7 +12628,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="163" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="14">
         <v>161</v>
       </c>
@@ -12386,7 +12642,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="164" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="14">
         <v>162</v>
       </c>
@@ -12400,7 +12656,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="165" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="14">
         <v>163</v>
       </c>
@@ -12414,7 +12670,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="166" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="14">
         <v>164</v>
       </c>
@@ -12428,7 +12684,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="167" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="14">
         <v>165</v>
       </c>
@@ -12442,7 +12698,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="168" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="14">
         <v>166</v>
       </c>
@@ -12456,7 +12712,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="169" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="14">
         <v>167</v>
       </c>
@@ -12470,7 +12726,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="170" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="14">
         <v>168</v>
       </c>
@@ -12484,7 +12740,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="171" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="14">
         <v>169</v>
       </c>
@@ -12498,7 +12754,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="172" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="14">
         <v>170</v>
       </c>
@@ -12512,7 +12768,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="173" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" s="14">
         <v>171</v>
       </c>
@@ -12526,7 +12782,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="174" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="14">
         <v>172</v>
       </c>
@@ -12540,7 +12796,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="175" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="14">
         <v>173</v>
       </c>
@@ -12554,7 +12810,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="176" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="14">
         <v>174</v>
       </c>
@@ -12568,7 +12824,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="177" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="14">
         <v>175</v>
       </c>
@@ -12582,7 +12838,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="178" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" s="14">
         <v>176</v>
       </c>
@@ -12596,7 +12852,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="179" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="14">
         <v>177</v>
       </c>
@@ -12610,7 +12866,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="180" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="14">
         <v>178</v>
       </c>
@@ -12624,7 +12880,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="181" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="14">
         <v>179</v>
       </c>
@@ -12638,7 +12894,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="182" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" s="14">
         <v>180</v>
       </c>
@@ -12652,7 +12908,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="183" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="14">
         <v>181</v>
       </c>
@@ -12666,7 +12922,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="184" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" s="14">
         <v>182</v>
       </c>
@@ -12680,7 +12936,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="185" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B185" s="14">
         <v>183</v>
       </c>
@@ -12694,7 +12950,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="186" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" s="14">
         <v>184</v>
       </c>
@@ -12708,7 +12964,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="187" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="14">
         <v>185</v>
       </c>
@@ -12722,7 +12978,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="188" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="14">
         <v>186</v>
       </c>
@@ -12736,7 +12992,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="189" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B189" s="14">
         <v>187</v>
       </c>
@@ -12750,7 +13006,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="190" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B190" s="14">
         <v>188</v>
       </c>
@@ -12764,7 +13020,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="191" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B191" s="14">
         <v>189</v>
       </c>
@@ -12778,7 +13034,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="192" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B192" s="14">
         <v>190</v>
       </c>
@@ -12792,7 +13048,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="193" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B193" s="14">
         <v>191</v>
       </c>
@@ -12806,7 +13062,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="194" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B194" s="14">
         <v>192</v>
       </c>
@@ -12820,7 +13076,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="195" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B195" s="14">
         <v>193</v>
       </c>
@@ -12834,7 +13090,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="196" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B196" s="14">
         <v>194</v>
       </c>
@@ -12848,7 +13104,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="197" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B197" s="14">
         <v>195</v>
       </c>
@@ -12862,7 +13118,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="198" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B198" s="14">
         <v>196</v>
       </c>
@@ -12876,7 +13132,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="199" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B199" s="14">
         <v>197</v>
       </c>
@@ -12890,7 +13146,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="200" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B200" s="14">
         <v>198</v>
       </c>
@@ -12904,7 +13160,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="201" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B201" s="14">
         <v>199</v>
       </c>
@@ -12918,7 +13174,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="202" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B202" s="14">
         <v>200</v>
       </c>
@@ -12932,7 +13188,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="203" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B203" s="14">
         <v>201</v>
       </c>
@@ -12946,7 +13202,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="204" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B204" s="14">
         <v>202</v>
       </c>
@@ -12960,7 +13216,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="205" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B205" s="14">
         <v>203</v>
       </c>
@@ -12974,7 +13230,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="206" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B206" s="14">
         <v>204</v>
       </c>
@@ -12988,7 +13244,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="207" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B207" s="14">
         <v>205</v>
       </c>
@@ -13002,7 +13258,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="208" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B208" s="14">
         <v>206</v>
       </c>
@@ -13016,7 +13272,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="209" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B209" s="14">
         <v>207</v>
       </c>
@@ -13030,7 +13286,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="210" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B210" s="14">
         <v>208</v>
       </c>
@@ -13044,7 +13300,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="211" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B211" s="14">
         <v>209</v>
       </c>
@@ -13058,7 +13314,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="212" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B212" s="14">
         <v>210</v>
       </c>
@@ -13072,7 +13328,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="213" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B213" s="14">
         <v>211</v>
       </c>
@@ -13086,7 +13342,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="214" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B214" s="14">
         <v>212</v>
       </c>
@@ -13100,7 +13356,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="215" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B215" s="14">
         <v>213</v>
       </c>
@@ -13114,7 +13370,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="216" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B216" s="14">
         <v>214</v>
       </c>
@@ -13128,7 +13384,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="217" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B217" s="14">
         <v>215</v>
       </c>
@@ -13142,7 +13398,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="218" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B218" s="14">
         <v>216</v>
       </c>
@@ -13156,7 +13412,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="219" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B219" s="14">
         <v>217</v>
       </c>
@@ -13170,7 +13426,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="220" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B220" s="14">
         <v>218</v>
       </c>
@@ -13184,7 +13440,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="221" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B221" s="14">
         <v>219</v>
       </c>
@@ -13198,7 +13454,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="222" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B222" s="14">
         <v>220</v>
       </c>
@@ -13212,7 +13468,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="223" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B223" s="14">
         <v>221</v>
       </c>
@@ -13226,7 +13482,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="224" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B224" s="14">
         <v>222</v>
       </c>
@@ -13240,7 +13496,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="225" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B225" s="14">
         <v>223</v>
       </c>
@@ -13254,7 +13510,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="226" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B226" s="14">
         <v>224</v>
       </c>
@@ -13268,7 +13524,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="227" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B227" s="14">
         <v>225</v>
       </c>
@@ -13282,7 +13538,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="228" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B228" s="14">
         <v>226</v>
       </c>
@@ -13296,7 +13552,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="229" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B229" s="14">
         <v>227</v>
       </c>
@@ -13310,7 +13566,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="230" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B230" s="14">
         <v>228</v>
       </c>
@@ -13324,7 +13580,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="231" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B231" s="14">
         <v>229</v>
       </c>
@@ -13338,7 +13594,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="232" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B232" s="14">
         <v>230</v>
       </c>
@@ -13352,7 +13608,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="233" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B233" s="14">
         <v>231</v>
       </c>
@@ -13366,7 +13622,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="234" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B234" s="14">
         <v>232</v>
       </c>
@@ -13380,7 +13636,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="235" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B235" s="14">
         <v>233</v>
       </c>
@@ -13394,7 +13650,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="236" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B236" s="14">
         <v>234</v>
       </c>
@@ -13408,7 +13664,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="237" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" s="14">
         <v>235</v>
       </c>
@@ -13422,7 +13678,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="238" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B238" s="14">
         <v>236</v>
       </c>
@@ -13436,7 +13692,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="239" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B239" s="14">
         <v>237</v>
       </c>
@@ -13450,7 +13706,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="240" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B240" s="14">
         <v>238</v>
       </c>
@@ -13464,7 +13720,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="241" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B241" s="14">
         <v>239</v>
       </c>
@@ -13478,7 +13734,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="242" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B242" s="14">
         <v>240</v>
       </c>
@@ -13492,7 +13748,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="243" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B243" s="14">
         <v>241</v>
       </c>
@@ -13506,7 +13762,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="244" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B244" s="14">
         <v>242</v>
       </c>
@@ -13520,7 +13776,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="245" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B245" s="14">
         <v>243</v>
       </c>
@@ -13534,7 +13790,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="246" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B246" s="14">
         <v>244</v>
       </c>
@@ -13548,7 +13804,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="247" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B247" s="14">
         <v>245</v>
       </c>
@@ -13562,7 +13818,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="248" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B248" s="14">
         <v>246</v>
       </c>
@@ -13576,7 +13832,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="249" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B249" s="14">
         <v>247</v>
       </c>
@@ -13590,7 +13846,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="250" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B250" s="14">
         <v>248</v>
       </c>
@@ -13604,7 +13860,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="251" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B251" s="14">
         <v>249</v>
       </c>
@@ -13618,7 +13874,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="252" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B252" s="14">
         <v>250</v>
       </c>
@@ -13632,7 +13888,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="253" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B253" s="14">
         <v>251</v>
       </c>
@@ -13646,7 +13902,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="254" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B254" s="14">
         <v>252</v>
       </c>
@@ -13660,7 +13916,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="255" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B255" s="14">
         <v>253</v>
       </c>
@@ -13674,7 +13930,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="256" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B256" s="14">
         <v>254</v>
       </c>
@@ -13688,7 +13944,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="257" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B257" s="14">
         <v>255</v>
       </c>
@@ -13702,7 +13958,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="258" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B258" s="14">
         <v>256</v>
       </c>
@@ -13716,7 +13972,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="259" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B259" s="14">
         <v>257</v>
       </c>
@@ -13730,7 +13986,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="260" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B260" s="14">
         <v>258</v>
       </c>
@@ -13744,7 +14000,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="261" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B261" s="14">
         <v>259</v>
       </c>
@@ -13758,7 +14014,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="262" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B262" s="14">
         <v>260</v>
       </c>
@@ -13772,7 +14028,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="263" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B263" s="14">
         <v>261</v>
       </c>
@@ -13786,7 +14042,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="264" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B264" s="14">
         <v>262</v>
       </c>
@@ -13800,7 +14056,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="265" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B265" s="14">
         <v>263</v>
       </c>
@@ -13814,7 +14070,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="266" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B266" s="14">
         <v>264</v>
       </c>
@@ -13828,7 +14084,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="267" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B267" s="14">
         <v>265</v>
       </c>
@@ -13842,7 +14098,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="268" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B268" s="14">
         <v>266</v>
       </c>
@@ -13856,7 +14112,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="269" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B269" s="14">
         <v>267</v>
       </c>
@@ -13870,7 +14126,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="270" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B270" s="14">
         <v>268</v>
       </c>
@@ -13884,7 +14140,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="271" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B271" s="14">
         <v>269</v>
       </c>
@@ -13898,7 +14154,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="272" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B272" s="14">
         <v>270</v>
       </c>
@@ -13912,7 +14168,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="273" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B273" s="14">
         <v>271</v>
       </c>
@@ -13926,7 +14182,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="274" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B274" s="14">
         <v>272</v>
       </c>
@@ -13940,7 +14196,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="275" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B275" s="14">
         <v>273</v>
       </c>
@@ -13954,7 +14210,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="276" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B276" s="14">
         <v>274</v>
       </c>
@@ -13968,7 +14224,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="277" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B277" s="14">
         <v>275</v>
       </c>
@@ -13982,7 +14238,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="278" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B278" s="14">
         <v>276</v>
       </c>
@@ -13996,7 +14252,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="279" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B279" s="14">
         <v>277</v>
       </c>
@@ -14010,7 +14266,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="280" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B280" s="14">
         <v>278</v>
       </c>
@@ -14024,7 +14280,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="281" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B281" s="14">
         <v>279</v>
       </c>
@@ -14038,7 +14294,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="282" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B282" s="14">
         <v>280</v>
       </c>
@@ -14052,7 +14308,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="283" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B283" s="14">
         <v>281</v>
       </c>
@@ -14066,7 +14322,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="284" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B284" s="14">
         <v>282</v>
       </c>
@@ -14080,7 +14336,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="285" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B285" s="14">
         <v>283</v>
       </c>
@@ -14094,7 +14350,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="286" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B286" s="14">
         <v>284</v>
       </c>
@@ -14108,7 +14364,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="287" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B287" s="14">
         <v>285</v>
       </c>
@@ -14122,7 +14378,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="288" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B288" s="14">
         <v>286</v>
       </c>
@@ -14136,7 +14392,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="289" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B289" s="14">
         <v>287</v>
       </c>
@@ -14150,7 +14406,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="290" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B290" s="14">
         <v>288</v>
       </c>
@@ -14164,7 +14420,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="291" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B291" s="14">
         <v>289</v>
       </c>
@@ -14178,7 +14434,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="292" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B292" s="14">
         <v>290</v>
       </c>
@@ -14192,7 +14448,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="293" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B293" s="14">
         <v>291</v>
       </c>
@@ -14206,7 +14462,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="294" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B294" s="14">
         <v>292</v>
       </c>
@@ -14220,7 +14476,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="295" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B295" s="14">
         <v>293</v>
       </c>
@@ -14234,7 +14490,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="296" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B296" s="14">
         <v>294</v>
       </c>
@@ -14248,7 +14504,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="297" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B297" s="14">
         <v>295</v>
       </c>
@@ -14262,7 +14518,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="298" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B298" s="14">
         <v>296</v>
       </c>
@@ -14276,7 +14532,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="299" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B299" s="14">
         <v>297</v>
       </c>
@@ -14290,7 +14546,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="300" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B300" s="14">
         <v>298</v>
       </c>
@@ -14304,7 +14560,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="301" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B301" s="14">
         <v>299</v>
       </c>
@@ -14318,7 +14574,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="302" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B302" s="14">
         <v>300</v>
       </c>
@@ -14332,7 +14588,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="303" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B303" s="14">
         <v>301</v>
       </c>
@@ -14346,7 +14602,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="304" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B304" s="14">
         <v>302</v>
       </c>
@@ -14360,7 +14616,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="305" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B305" s="14">
         <v>303</v>
       </c>
@@ -14374,7 +14630,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="306" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B306" s="14">
         <v>304</v>
       </c>
@@ -14388,7 +14644,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="307" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B307" s="14">
         <v>305</v>
       </c>
@@ -14402,7 +14658,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="308" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B308" s="14">
         <v>306</v>
       </c>
@@ -14416,7 +14672,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="309" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B309" s="14">
         <v>307</v>
       </c>
@@ -14430,7 +14686,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="310" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B310" s="14">
         <v>308</v>
       </c>
@@ -14444,7 +14700,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="311" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B311" s="14">
         <v>309</v>
       </c>
@@ -14458,7 +14714,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="312" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B312" s="14">
         <v>310</v>
       </c>
@@ -14472,7 +14728,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="313" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B313" s="14">
         <v>311</v>
       </c>
@@ -14486,7 +14742,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="314" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B314" s="14">
         <v>312</v>
       </c>
@@ -14500,7 +14756,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="315" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B315" s="14">
         <v>313</v>
       </c>
@@ -14514,7 +14770,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="316" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B316" s="14">
         <v>314</v>
       </c>
@@ -14528,7 +14784,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="317" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B317" s="14">
         <v>315</v>
       </c>
@@ -14542,7 +14798,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="318" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B318" s="14">
         <v>316</v>
       </c>
@@ -14556,7 +14812,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="319" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B319" s="14">
         <v>317</v>
       </c>
@@ -14570,7 +14826,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="320" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B320" s="14">
         <v>318</v>
       </c>
@@ -14584,7 +14840,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="321" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B321" s="14">
         <v>319</v>
       </c>
@@ -14598,7 +14854,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="322" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B322" s="14">
         <v>320</v>
       </c>
@@ -14612,7 +14868,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="323" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B323" s="14">
         <v>321</v>
       </c>
@@ -14626,7 +14882,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="324" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B324" s="14">
         <v>322</v>
       </c>
@@ -14640,7 +14896,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="325" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B325" s="14">
         <v>323</v>
       </c>
@@ -14654,7 +14910,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="326" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B326" s="14">
         <v>324</v>
       </c>
@@ -14668,7 +14924,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="327" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B327" s="14">
         <v>325</v>
       </c>
@@ -14682,7 +14938,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="328" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B328" s="14">
         <v>326</v>
       </c>
@@ -14696,7 +14952,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="329" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B329" s="14">
         <v>327</v>
       </c>
@@ -14710,7 +14966,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="330" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B330" s="14">
         <v>328</v>
       </c>
@@ -14724,7 +14980,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="331" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B331" s="14">
         <v>329</v>
       </c>
@@ -14738,7 +14994,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="332" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B332" s="14">
         <v>330</v>
       </c>
@@ -14752,7 +15008,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="333" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B333" s="14">
         <v>331</v>
       </c>
@@ -14766,7 +15022,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="334" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B334" s="14">
         <v>332</v>
       </c>
@@ -14780,7 +15036,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="335" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B335" s="14">
         <v>333</v>
       </c>
@@ -14794,7 +15050,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="336" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B336" s="14">
         <v>334</v>
       </c>
@@ -14808,7 +15064,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="337" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B337" s="14">
         <v>335</v>
       </c>
@@ -14822,7 +15078,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="338" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B338" s="14">
         <v>336</v>
       </c>
@@ -14836,7 +15092,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="339" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B339" s="14">
         <v>337</v>
       </c>
@@ -14850,7 +15106,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="340" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B340" s="14">
         <v>338</v>
       </c>
@@ -14864,7 +15120,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="341" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B341" s="14">
         <v>339</v>
       </c>
@@ -14878,7 +15134,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="342" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B342" s="14">
         <v>340</v>
       </c>
@@ -14892,7 +15148,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="343" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B343" s="14">
         <v>341</v>
       </c>
@@ -14906,7 +15162,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="344" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B344" s="14">
         <v>342</v>
       </c>
@@ -14920,7 +15176,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="345" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B345" s="14">
         <v>343</v>
       </c>
@@ -14934,7 +15190,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="346" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B346" s="14">
         <v>344</v>
       </c>
@@ -14948,7 +15204,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="347" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B347" s="14">
         <v>345</v>
       </c>
@@ -14962,7 +15218,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="348" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B348" s="14">
         <v>346</v>
       </c>
@@ -14976,7 +15232,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="349" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B349" s="14">
         <v>347</v>
       </c>
@@ -14990,7 +15246,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="350" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B350" s="14">
         <v>348</v>
       </c>
@@ -15004,7 +15260,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="351" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B351" s="14">
         <v>349</v>
       </c>
@@ -15018,7 +15274,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="352" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B352" s="14">
         <v>350</v>
       </c>
@@ -15032,7 +15288,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="353" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B353" s="14">
         <v>351</v>
       </c>
@@ -15046,7 +15302,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="354" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B354" s="14">
         <v>352</v>
       </c>
@@ -15060,7 +15316,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="355" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B355" s="14">
         <v>353</v>
       </c>
@@ -15074,7 +15330,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="356" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B356" s="14">
         <v>354</v>
       </c>
@@ -15088,7 +15344,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="357" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B357" s="14">
         <v>355</v>
       </c>
@@ -15102,7 +15358,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="358" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B358" s="14">
         <v>356</v>
       </c>
@@ -15116,7 +15372,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="359" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B359" s="14">
         <v>357</v>
       </c>
@@ -15130,7 +15386,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="360" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B360" s="14">
         <v>358</v>
       </c>
@@ -15144,7 +15400,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="361" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B361" s="14">
         <v>359</v>
       </c>
@@ -15158,7 +15414,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="362" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B362" s="14">
         <v>360</v>
       </c>
@@ -15172,7 +15428,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="363" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B363" s="14">
         <v>361</v>
       </c>
@@ -15186,7 +15442,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="364" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B364" s="14">
         <v>362</v>
       </c>
@@ -15200,7 +15456,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="365" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B365" s="14">
         <v>363</v>
       </c>
@@ -15214,7 +15470,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="366" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B366" s="14">
         <v>364</v>
       </c>
@@ -15228,7 +15484,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="367" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B367" s="14">
         <v>365</v>
       </c>
@@ -15242,7 +15498,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="368" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B368" s="14">
         <v>366</v>
       </c>
@@ -15256,7 +15512,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="369" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B369" s="14">
         <v>367</v>
       </c>
@@ -15270,7 +15526,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="370" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B370" s="14">
         <v>368</v>
       </c>
@@ -15284,7 +15540,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="371" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B371" s="14">
         <v>369</v>
       </c>
@@ -15298,7 +15554,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="372" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B372" s="14">
         <v>370</v>
       </c>
@@ -15312,7 +15568,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="373" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B373" s="14">
         <v>371</v>
       </c>
@@ -15326,7 +15582,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="374" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B374" s="14">
         <v>372</v>
       </c>
@@ -15340,7 +15596,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="375" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B375" s="14">
         <v>373</v>
       </c>
@@ -15354,7 +15610,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="376" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B376" s="14">
         <v>374</v>
       </c>
@@ -15368,7 +15624,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="377" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B377" s="14">
         <v>375</v>
       </c>
@@ -15382,7 +15638,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="378" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B378" s="14">
         <v>376</v>
       </c>
@@ -15396,7 +15652,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="379" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B379" s="14">
         <v>377</v>
       </c>
@@ -15410,7 +15666,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="380" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B380" s="14">
         <v>378</v>
       </c>
@@ -15424,7 +15680,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="381" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B381" s="14">
         <v>379</v>
       </c>
@@ -15438,7 +15694,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="382" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B382" s="14">
         <v>380</v>
       </c>
@@ -15452,7 +15708,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="383" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B383" s="14">
         <v>381</v>
       </c>
@@ -15466,7 +15722,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="384" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B384" s="14">
         <v>382</v>
       </c>
@@ -15480,7 +15736,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="385" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B385" s="14">
         <v>383</v>
       </c>
@@ -15494,7 +15750,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="386" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B386" s="14">
         <v>384</v>
       </c>
@@ -15508,7 +15764,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="387" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B387" s="14">
         <v>385</v>
       </c>
@@ -15522,7 +15778,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="388" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B388" s="14">
         <v>386</v>
       </c>
@@ -15536,7 +15792,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="389" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B389" s="14">
         <v>387</v>
       </c>
@@ -15550,7 +15806,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="390" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B390" s="14">
         <v>388</v>
       </c>
@@ -15564,7 +15820,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="391" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B391" s="14">
         <v>389</v>
       </c>
@@ -15578,7 +15834,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="392" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B392" s="14">
         <v>390</v>
       </c>
@@ -15592,7 +15848,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="393" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B393" s="14">
         <v>391</v>
       </c>
@@ -15606,7 +15862,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="394" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B394" s="14">
         <v>392</v>
       </c>
@@ -15620,7 +15876,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="395" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B395" s="14">
         <v>393</v>
       </c>
@@ -15634,7 +15890,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="396" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B396" s="14">
         <v>394</v>
       </c>
@@ -15648,7 +15904,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="397" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B397" s="14">
         <v>395</v>
       </c>
@@ -15662,7 +15918,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="398" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B398" s="14">
         <v>396</v>
       </c>
@@ -15676,7 +15932,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="399" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B399" s="14">
         <v>397</v>
       </c>
@@ -15690,7 +15946,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="400" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B400" s="14">
         <v>398</v>
       </c>
@@ -15704,7 +15960,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="401" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B401" s="14">
         <v>399</v>
       </c>
@@ -15718,7 +15974,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="402" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B402" s="14">
         <v>400</v>
       </c>
@@ -15732,7 +15988,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="403" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B403" s="14">
         <v>401</v>
       </c>
@@ -15746,7 +16002,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="404" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B404" s="14">
         <v>402</v>
       </c>
@@ -15760,7 +16016,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="405" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B405" s="14">
         <v>403</v>
       </c>
@@ -15774,7 +16030,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="406" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B406" s="14">
         <v>404</v>
       </c>
@@ -15788,7 +16044,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="407" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B407" s="14">
         <v>405</v>
       </c>
@@ -15802,7 +16058,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="408" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B408" s="14">
         <v>406</v>
       </c>
@@ -15816,7 +16072,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="409" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B409" s="14">
         <v>407</v>
       </c>
@@ -15830,7 +16086,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="410" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B410" s="14">
         <v>408</v>
       </c>
@@ -15844,7 +16100,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="411" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B411" s="14">
         <v>409</v>
       </c>
@@ -15858,7 +16114,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="412" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B412" s="14">
         <v>410</v>
       </c>
@@ -15872,7 +16128,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="413" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B413" s="14">
         <v>411</v>
       </c>
@@ -15886,7 +16142,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="414" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B414" s="14">
         <v>412</v>
       </c>
@@ -15900,7 +16156,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="415" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B415" s="14">
         <v>413</v>
       </c>
@@ -15914,7 +16170,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="416" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B416" s="14">
         <v>414</v>
       </c>
@@ -15928,7 +16184,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="417" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B417" s="14">
         <v>415</v>
       </c>
@@ -15942,7 +16198,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="418" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B418" s="14">
         <v>416</v>
       </c>
@@ -15956,7 +16212,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="419" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B419" s="14">
         <v>417</v>
       </c>
@@ -15970,7 +16226,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="420" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B420" s="14">
         <v>418</v>
       </c>
@@ -15984,7 +16240,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="421" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B421" s="14">
         <v>419</v>
       </c>
@@ -15998,7 +16254,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="422" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B422" s="14">
         <v>420</v>
       </c>
@@ -16012,7 +16268,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="423" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B423" s="14">
         <v>421</v>
       </c>
@@ -16026,7 +16282,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="424" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B424" s="14">
         <v>422</v>
       </c>
@@ -16040,7 +16296,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="425" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B425" s="14">
         <v>423</v>
       </c>
@@ -16054,7 +16310,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="426" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B426" s="14">
         <v>424</v>
       </c>
@@ -16068,7 +16324,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="427" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B427" s="14">
         <v>425</v>
       </c>
@@ -16082,7 +16338,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="428" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B428" s="14">
         <v>426</v>
       </c>
@@ -16096,7 +16352,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="429" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B429" s="14">
         <v>427</v>
       </c>
@@ -16110,7 +16366,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="430" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B430" s="14">
         <v>428</v>
       </c>
@@ -16124,7 +16380,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="431" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B431" s="14">
         <v>429</v>
       </c>
@@ -16138,7 +16394,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="432" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B432" s="14">
         <v>430</v>
       </c>
@@ -16152,7 +16408,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="433" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B433" s="14">
         <v>431</v>
       </c>
@@ -16166,7 +16422,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="434" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B434" s="14">
         <v>432</v>
       </c>
@@ -16180,7 +16436,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="435" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B435" s="14">
         <v>433</v>
       </c>
@@ -16194,7 +16450,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="436" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B436" s="14">
         <v>434</v>
       </c>
@@ -16208,7 +16464,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="437" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B437" s="14">
         <v>435</v>
       </c>
@@ -16222,7 +16478,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="438" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B438" s="14">
         <v>436</v>
       </c>
@@ -16236,7 +16492,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="439" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B439" s="14">
         <v>437</v>
       </c>
@@ -16250,7 +16506,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="440" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B440" s="14">
         <v>438</v>
       </c>
@@ -16264,7 +16520,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="441" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B441" s="14">
         <v>439</v>
       </c>
@@ -16278,7 +16534,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="442" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B442" s="14">
         <v>440</v>
       </c>
@@ -16292,7 +16548,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="443" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B443" s="14">
         <v>441</v>
       </c>
@@ -16306,7 +16562,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="444" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B444" s="14">
         <v>442</v>
       </c>
@@ -16320,7 +16576,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="445" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B445" s="14">
         <v>443</v>
       </c>
@@ -16334,7 +16590,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="446" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B446" s="14">
         <v>444</v>
       </c>
@@ -16348,7 +16604,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="447" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B447" s="14">
         <v>445</v>
       </c>
@@ -16362,7 +16618,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="448" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B448" s="14">
         <v>446</v>
       </c>
@@ -16376,7 +16632,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="449" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B449" s="14">
         <v>447</v>
       </c>
@@ -16390,7 +16646,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="450" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B450" s="14">
         <v>448</v>
       </c>
@@ -16404,7 +16660,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="451" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B451" s="14">
         <v>449</v>
       </c>
@@ -16418,7 +16674,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="452" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B452" s="14">
         <v>450</v>
       </c>
@@ -16432,7 +16688,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="453" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B453" s="14">
         <v>451</v>
       </c>
@@ -16446,7 +16702,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="454" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B454" s="14">
         <v>452</v>
       </c>
@@ -16460,9 +16716,9 @@
         <v>581</v>
       </c>
     </row>
-    <row r="456" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <autoFilter ref="B2:E454" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="2">
